--- a/QRPH/mADX/all-profiles.xlsx
+++ b/QRPH/mADX/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="731">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-comment</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:19:35-05:00</t>
+    <t>2025-09-17T13:26:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>knowledgeCapability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {cqf-knowledgeCapability}
+    <t xml:space="preserve">Extension {cqf-knowledgeCapability|5.2.0}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>artifactComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {cqf-artifactComment}
+    <t xml:space="preserve">Extension {cqf-artifactComment|5.2.0}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm|5.2.0}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>versionPolicy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {artifact-versionPolicy}
+    <t xml:space="preserve">Extension {artifact-versionPolicy|5.2.0}
 </t>
   </si>
   <si>
@@ -1139,7 +1139,7 @@
 </t>
   </si>
   <si>
-    <t>There should be a related artifact for each dissagregation set defined under group[].stratifier[]</t>
+    <t>There should be a related artifact for each dissagregation set defined under group[].stratifier[].component[].code</t>
   </si>
   <si>
     <t>Related artifacts such as additional documentation, justification, or bibliographic references.</t>
@@ -1160,15 +1160,12 @@
     <t>Measure.relatedArtifact.type</t>
   </si>
   <si>
-    <t>documentation | justification | citation | predecessor | successor | derived-from | depends-on | composed-of</t>
+    <t>Should be set to 'depends-on' when referencing a disaggregating value set</t>
   </si>
   <si>
     <t>The type of relationship to the related artifact.</t>
   </si>
   <si>
-    <t>depends-on</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.0.1</t>
   </si>
   <si>
@@ -1178,7 +1175,7 @@
     <t>Measure.relatedArtifact.label</t>
   </si>
   <si>
-    <t>The label should match one of the values of group[].stratifier[].code for a disaggregation value set</t>
+    <t>The label should match one of the values of group[].stratifier[].component[].code for a disaggregation value set</t>
   </si>
   <si>
     <t>A short label that can be used to reference the citation from elsewhere in the containing artifact, such as a footnote index.</t>
@@ -1221,7 +1218,7 @@
 </t>
   </si>
   <si>
-    <t>The URL of a FHIR Valueset that defines the valid values reported in this disaggregation criterion as cross-referenced by relatedArtifact[].label</t>
+    <t>The URL of a FHIR value set that defines the valid values reported in this disaggregation criterion as cross-referenced by relatedArtifact[].label</t>
   </si>
   <si>
     <t>A url for the artifact that can be followed to access the actual content.</t>
@@ -1252,7 +1249,7 @@
     <t>Measure.relatedArtifact.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Resource)
+    <t xml:space="preserve">canonical(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1512,7 +1509,7 @@
     <t>Measure.group.population.code</t>
   </si>
   <si>
-    <t>A required population code for a valid indicator. This code should be �numerator� if the reported indicator is a number (not a proportion). A proportion should have a numerator population and a denominator population</t>
+    <t>A required population code for a valid indicator.</t>
   </si>
   <si>
     <t>The type of population criteria.</t>
@@ -1570,7 +1567,7 @@
     <t>Measure.group.stratifier.code</t>
   </si>
   <si>
-    <t>There should be a code used to reference this disaggregating valueset. There must be a relatedArtifact for each disaggregation set which is a reference to a FHIR Valueset</t>
+    <t>Meaning of the stratifier</t>
   </si>
   <si>
     <t>Indicates a meaning for the stratifier. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
@@ -1597,7 +1594,7 @@
     <t>Measure.group.stratifier.component</t>
   </si>
   <si>
-    <t>Stratifier criteria component for the measure</t>
+    <t>There should be a 'component' for each set of disaggregators which is linked to a FHIR value set</t>
   </si>
   <si>
     <t>A component of the stratifier criteria for the measure report, specified as either the name of a valid CQL expression defined within a referenced library or a valid FHIR Resource Path.</t>
@@ -1618,7 +1615,7 @@
     <t>Measure.group.stratifier.component.code</t>
   </si>
   <si>
-    <t>Meaning of the stratifier component</t>
+    <t>There should be a code used to reference this disaggregating valueset. There must be a relatedArtifact for each disaggregation set which is a reference to a FHIR value set. The relatedArtifact.type should be set to 'depends-on'</t>
   </si>
   <si>
     <t>Indicates a meaning for the stratifier component. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
@@ -1748,6 +1745,9 @@
     <t>MeasureReport.language</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+  </si>
+  <si>
     <t>MeasureReport.text</t>
   </si>
   <si>
@@ -1818,7 +1818,7 @@
     <t>MeasureReport.measure</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Measure)
+    <t xml:space="preserve">canonical(Measure|4.0.1)
 </t>
   </si>
   <si>
@@ -1831,7 +1831,7 @@
     <t>MeasureReport.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Location|Device|RelatedPerson|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1853,7 +1853,7 @@
     <t>MeasureReport.reporter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1972,6 +1972,9 @@
   </si>
   <si>
     <t>The type of population (e.g. initial, numerator, denominator, etc.).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-population|4.0.1</t>
   </si>
   <si>
     <t>MeasureReport.group.population.count</t>
@@ -1990,7 +1993,7 @@
     <t>MeasureReport.group.population.subjectResults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(List)
+    <t xml:space="preserve">Reference(List|4.0.1)
 </t>
   </si>
   <si>
@@ -2034,7 +2037,7 @@
     <t>MeasureReport.group.stratifier.code</t>
   </si>
   <si>
-    <t>Indicates the disaggregation criterion</t>
+    <t>What stratifier of the group</t>
   </si>
   <si>
     <t>The meaning of this stratifier, as defined in the measure definition.</t>
@@ -2043,7 +2046,7 @@
     <t>MeasureReport.group.stratifier.stratum</t>
   </si>
   <si>
-    <t>Stratum results, one for each unique value, or set of values, in the stratifier, or stratifier components</t>
+    <t>Indicates the stratum results</t>
   </si>
   <si>
     <t>This element contains the results for a single stratum within the stratifier. For example, when stratifying on administrative gender, there will be four strata, one for each possible gender value.</t>
@@ -2061,7 +2064,7 @@
     <t>MeasureReport.group.stratifier.stratum.value</t>
   </si>
   <si>
-    <t>Represents a disaggregation value for the disaggregation criterion reported</t>
+    <t>The stratum value, e.g. male</t>
   </si>
   <si>
     <t>The value for this stratum, expressed as a CodeableConcept. When defining stratifiers on complex values, the value must be rendered such that the value for each stratum within the stratifier is unique.</t>
@@ -2070,34 +2073,34 @@
     <t>MeasureReport.group.stratifier.stratum.component</t>
   </si>
   <si>
+    <t>Stratifier component values</t>
+  </si>
+  <si>
+    <t>A stratifier component value.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.code</t>
+  </si>
+  <si>
     <t>Represents a disaggregation dimension for the disaggregation criterion reported</t>
   </si>
   <si>
-    <t>A stratifier component value.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.code</t>
-  </si>
-  <si>
-    <t>What stratifier component of the group</t>
-  </si>
-  <si>
     <t>The code for the stratum component value.</t>
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.component.value</t>
   </si>
   <si>
-    <t>The stratum component value, e.g. male</t>
+    <t>Represents a disaggregation value for the disaggregation dimension reported</t>
   </si>
   <si>
     <t>The stratum component value.</t>
@@ -2252,7 +2255,7 @@
     <t>MeasureReport.evaluatedResource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2594,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26">
@@ -2602,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27">
@@ -2618,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29">
@@ -2626,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30">
@@ -2696,7 +2699,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39">
@@ -2732,7 +2735,7 @@
         <v>33</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44">
@@ -2740,7 +2743,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45">
@@ -2775,17 +2778,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="64.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="64.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="57.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2794,21 +2797,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="134.4609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="61.39453125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="60.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.09375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.58984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="55.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="54.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.51953125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -8625,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>77</v>
@@ -8649,7 +8652,7 @@
       </c>
       <c r="R56" s="2"/>
       <c r="S56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>77</v>
@@ -8673,25 +8676,25 @@
         <v>370</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8711,10 +8714,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8722,13 +8725,13 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>77</v>
@@ -8740,10 +8743,10 @@
         <v>175</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8794,7 +8797,7 @@
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>82</v>
@@ -8814,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8843,10 +8846,10 @@
         <v>175</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8897,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>82</v>
@@ -8917,10 +8920,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8946,13 +8949,13 @@
         <v>297</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -9002,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>82</v>
@@ -9022,10 +9025,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9033,13 +9036,13 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>77</v>
@@ -9048,16 +9051,16 @@
         <v>86</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -9107,7 +9110,7 @@
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>82</v>
@@ -9127,10 +9130,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9153,13 +9156,13 @@
         <v>86</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -9210,7 +9213,7 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
@@ -9230,10 +9233,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9256,16 +9259,16 @@
         <v>86</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -9315,7 +9318,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
@@ -9335,10 +9338,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9361,13 +9364,13 @@
         <v>77</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -9418,7 +9421,7 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
@@ -9438,10 +9441,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9467,14 +9470,14 @@
         <v>297</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q64" t="s" s="2">
         <v>77</v>
@@ -9523,7 +9526,7 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>82</v>
@@ -9543,10 +9546,10 @@
         <v>3</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9572,10 +9575,10 @@
         <v>205</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9605,11 +9608,11 @@
         <v>210</v>
       </c>
       <c r="Z65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AA65" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AA65" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AB65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9626,7 +9629,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>82</v>
@@ -9646,10 +9649,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9675,10 +9678,10 @@
         <v>205</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9708,11 +9711,11 @@
         <v>210</v>
       </c>
       <c r="Z66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA66" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AB66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9729,7 +9732,7 @@
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>82</v>
@@ -9749,10 +9752,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9778,10 +9781,10 @@
         <v>205</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9811,11 +9814,11 @@
         <v>210</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA67" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AA67" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AB67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>82</v>
@@ -9852,10 +9855,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9881,13 +9884,13 @@
         <v>175</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9937,7 +9940,7 @@
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>82</v>
@@ -9957,10 +9960,10 @@
         <v>3</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9986,13 +9989,13 @@
         <v>175</v>
       </c>
       <c r="M69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -10042,7 +10045,7 @@
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
@@ -10062,10 +10065,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10091,14 +10094,14 @@
         <v>297</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q70" t="s" s="2">
         <v>77</v>
@@ -10147,7 +10150,7 @@
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>82</v>
@@ -10167,10 +10170,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10196,10 +10199,10 @@
         <v>297</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -10250,7 +10253,7 @@
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
@@ -10270,10 +10273,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10281,13 +10284,13 @@
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>77</v>
@@ -10299,14 +10302,14 @@
         <v>205</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q72" t="s" s="2">
         <v>77</v>
@@ -10334,11 +10337,11 @@
         <v>196</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA72" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AB72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>82</v>
@@ -10375,10 +10378,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10404,14 +10407,14 @@
         <v>297</v>
       </c>
       <c r="M73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>77</v>
@@ -10460,7 +10463,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>82</v>
@@ -10480,10 +10483,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10509,14 +10512,14 @@
         <v>297</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>77</v>
@@ -10565,7 +10568,7 @@
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>82</v>
@@ -10585,10 +10588,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10611,13 +10614,13 @@
         <v>77</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -10668,7 +10671,7 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>82</v>
@@ -10688,10 +10691,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10791,10 +10794,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10896,14 +10899,14 @@
         <v>3</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
@@ -10925,10 +10928,10 @@
         <v>128</v>
       </c>
       <c r="M78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>160</v>
@@ -10983,7 +10986,7 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>82</v>
@@ -11003,10 +11006,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11032,10 +11035,10 @@
         <v>205</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -11086,7 +11089,7 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>82</v>
@@ -11106,10 +11109,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11209,10 +11212,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11314,10 +11317,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11421,10 +11424,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11528,10 +11531,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11557,10 +11560,10 @@
         <v>175</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11611,7 +11614,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>82</v>
@@ -11631,10 +11634,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11657,13 +11660,13 @@
         <v>77</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11714,7 +11717,7 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>82</v>
@@ -11734,10 +11737,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11837,10 +11840,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11942,14 +11945,14 @@
         <v>3</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
@@ -11971,10 +11974,10 @@
         <v>128</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>160</v>
@@ -12029,7 +12032,7 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>82</v>
@@ -12049,10 +12052,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12078,10 +12081,10 @@
         <v>205</v>
       </c>
       <c r="M89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -12111,11 +12114,11 @@
         <v>210</v>
       </c>
       <c r="Z89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA89" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AA89" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AB89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12132,7 +12135,7 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>82</v>
@@ -12152,10 +12155,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12181,10 +12184,10 @@
         <v>175</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -12235,7 +12238,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>82</v>
@@ -12255,10 +12258,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12281,16 +12284,16 @@
         <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -12340,7 +12343,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
@@ -12360,10 +12363,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12386,13 +12389,13 @@
         <v>77</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -12443,7 +12446,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>82</v>
@@ -12463,10 +12466,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12566,10 +12569,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12671,14 +12674,14 @@
         <v>3</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
@@ -12700,10 +12703,10 @@
         <v>128</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>160</v>
@@ -12758,7 +12761,7 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>82</v>
@@ -12778,10 +12781,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12795,7 +12798,7 @@
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>77</v>
@@ -12807,10 +12810,10 @@
         <v>205</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12861,7 +12864,7 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>82</v>
@@ -12881,10 +12884,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12910,10 +12913,10 @@
         <v>175</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -12964,7 +12967,7 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>82</v>
@@ -12984,10 +12987,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13010,13 +13013,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -13067,7 +13070,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>82</v>
@@ -13087,10 +13090,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13104,7 +13107,7 @@
         <v>83</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>77</v>
@@ -13113,16 +13116,16 @@
         <v>77</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -13172,7 +13175,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>82</v>
@@ -13192,10 +13195,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13295,10 +13298,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13400,14 +13403,14 @@
         <v>3</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
@@ -13429,10 +13432,10 @@
         <v>128</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>160</v>
@@ -13487,7 +13490,7 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>82</v>
@@ -13507,10 +13510,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13524,7 +13527,7 @@
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>77</v>
@@ -13536,10 +13539,10 @@
         <v>205</v>
       </c>
       <c r="M103" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -13590,7 +13593,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>82</v>
@@ -13610,10 +13613,10 @@
         <v>3</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13639,10 +13642,10 @@
         <v>175</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13693,7 +13696,7 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>82</v>
@@ -13713,10 +13716,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13739,13 +13742,13 @@
         <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M105" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -13796,7 +13799,7 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
@@ -13816,10 +13819,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13842,16 +13845,16 @@
         <v>77</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13901,7 +13904,7 @@
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>82</v>
@@ -13921,10 +13924,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14024,10 +14027,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14129,14 +14132,14 @@
         <v>3</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
@@ -14158,10 +14161,10 @@
         <v>128</v>
       </c>
       <c r="M109" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>160</v>
@@ -14216,7 +14219,7 @@
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>82</v>
@@ -14236,10 +14239,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14265,10 +14268,10 @@
         <v>205</v>
       </c>
       <c r="M110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -14319,7 +14322,7 @@
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>82</v>
@@ -14339,10 +14342,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14368,10 +14371,10 @@
         <v>205</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -14401,11 +14404,11 @@
         <v>210</v>
       </c>
       <c r="Z111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA111" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AA111" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AB111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14422,7 +14425,7 @@
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>82</v>
@@ -14442,10 +14445,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14471,10 +14474,10 @@
         <v>175</v>
       </c>
       <c r="M112" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -14525,7 +14528,7 @@
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>82</v>
@@ -14545,10 +14548,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14571,13 +14574,13 @@
         <v>77</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -14628,7 +14631,7 @@
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
@@ -14645,13 +14648,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14677,10 +14680,10 @@
         <v>79</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -14731,7 +14734,7 @@
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>82</v>
@@ -14743,18 +14746,18 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14853,13 +14856,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14956,13 +14959,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15061,13 +15064,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15131,7 +15134,7 @@
         <v>110</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="AB118" t="s" s="2">
         <v>77</v>
@@ -15166,7 +15169,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>562</v>
@@ -15271,7 +15274,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>563</v>
@@ -15376,7 +15379,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>564</v>
@@ -15481,7 +15484,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>566</v>
@@ -15588,7 +15591,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>567</v>
@@ -15695,7 +15698,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>571</v>
@@ -15800,7 +15803,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>577</v>
@@ -15905,7 +15908,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>584</v>
@@ -16008,7 +16011,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>588</v>
@@ -16111,7 +16114,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>592</v>
@@ -16214,7 +16217,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>595</v>
@@ -16317,7 +16320,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>599</v>
@@ -16420,7 +16423,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>602</v>
@@ -16434,13 +16437,13 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>86</v>
@@ -16487,10 +16490,10 @@
         <v>196</v>
       </c>
       <c r="Z131" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA131" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>77</v>
@@ -16525,7 +16528,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>606</v>
@@ -16554,7 +16557,7 @@
         <v>77</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>607</v>
@@ -16628,7 +16631,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>609</v>
@@ -16731,7 +16734,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>610</v>
@@ -16836,7 +16839,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>611</v>
@@ -16846,7 +16849,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
@@ -16868,10 +16871,10 @@
         <v>128</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>160</v>
@@ -16926,7 +16929,7 @@
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>82</v>
@@ -16943,7 +16946,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>612</v>
@@ -17046,7 +17049,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>615</v>
@@ -17149,7 +17152,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>616</v>
@@ -17254,7 +17257,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>617</v>
@@ -17361,7 +17364,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>618</v>
@@ -17464,7 +17467,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>619</v>
@@ -17569,7 +17572,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>620</v>
@@ -17676,7 +17679,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>621</v>
@@ -17781,7 +17784,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>622</v>
@@ -17886,7 +17889,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>623</v>
@@ -17991,7 +17994,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>624</v>
@@ -18098,7 +18101,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>625</v>
@@ -18205,7 +18208,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>626</v>
@@ -18234,7 +18237,7 @@
         <v>77</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>627</v>
@@ -18308,7 +18311,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>629</v>
@@ -18411,7 +18414,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>630</v>
@@ -18516,7 +18519,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>631</v>
@@ -18526,7 +18529,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
@@ -18548,10 +18551,10 @@
         <v>128</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>160</v>
@@ -18606,7 +18609,7 @@
         <v>77</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>82</v>
@@ -18623,7 +18626,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>632</v>
@@ -18691,7 +18694,7 @@
         <v>635</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>487</v>
+        <v>636</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>77</v>
@@ -18726,13 +18729,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -18755,13 +18758,13 @@
         <v>77</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -18812,7 +18815,7 @@
         <v>77</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>82</v>
@@ -18829,13 +18832,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18858,13 +18861,13 @@
         <v>77</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -18915,7 +18918,7 @@
         <v>77</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>82</v>
@@ -18932,13 +18935,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18961,13 +18964,13 @@
         <v>86</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -19018,7 +19021,7 @@
         <v>77</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>82</v>
@@ -19035,13 +19038,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19064,13 +19067,13 @@
         <v>77</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -19121,7 +19124,7 @@
         <v>77</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>82</v>
@@ -19138,13 +19141,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19241,13 +19244,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19346,17 +19349,17 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
@@ -19378,10 +19381,10 @@
         <v>128</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>160</v>
@@ -19436,7 +19439,7 @@
         <v>77</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>82</v>
@@ -19453,13 +19456,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19467,10 +19470,10 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>77</v>
@@ -19485,10 +19488,10 @@
         <v>205</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -19539,7 +19542,7 @@
         <v>77</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>82</v>
@@ -19556,13 +19559,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19585,13 +19588,13 @@
         <v>77</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -19642,7 +19645,7 @@
         <v>77</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>82</v>
@@ -19659,13 +19662,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -19762,13 +19765,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -19867,17 +19870,17 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
@@ -19899,10 +19902,10 @@
         <v>128</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>160</v>
@@ -19957,7 +19960,7 @@
         <v>77</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>82</v>
@@ -19974,13 +19977,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -19994,7 +19997,7 @@
         <v>78</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>77</v>
@@ -20006,10 +20009,10 @@
         <v>205</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -20060,7 +20063,7 @@
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>82</v>
@@ -20077,13 +20080,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20091,13 +20094,13 @@
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>77</v>
@@ -20106,13 +20109,13 @@
         <v>77</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -20163,7 +20166,7 @@
         <v>77</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>82</v>
@@ -20180,13 +20183,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20283,13 +20286,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -20388,17 +20391,17 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
@@ -20420,10 +20423,10 @@
         <v>128</v>
       </c>
       <c r="M169" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>160</v>
@@ -20478,7 +20481,7 @@
         <v>77</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>82</v>
@@ -20495,13 +20498,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20527,10 +20530,10 @@
         <v>205</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -20581,7 +20584,7 @@
         <v>77</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -20598,13 +20601,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -20630,10 +20633,10 @@
         <v>205</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -20684,7 +20687,7 @@
         <v>77</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -20701,13 +20704,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -20730,13 +20733,13 @@
         <v>77</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -20787,7 +20790,7 @@
         <v>77</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>82</v>
@@ -20804,13 +20807,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -20907,13 +20910,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21012,17 +21015,17 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
@@ -21044,10 +21047,10 @@
         <v>128</v>
       </c>
       <c r="M175" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>160</v>
@@ -21102,7 +21105,7 @@
         <v>77</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>82</v>
@@ -21119,13 +21122,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -21187,7 +21190,7 @@
         <v>635</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>487</v>
+        <v>636</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>77</v>
@@ -21205,7 +21208,7 @@
         <v>77</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>82</v>
@@ -21222,13 +21225,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -21251,13 +21254,13 @@
         <v>77</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -21308,7 +21311,7 @@
         <v>77</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>82</v>
@@ -21325,13 +21328,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -21354,13 +21357,13 @@
         <v>77</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -21411,7 +21414,7 @@
         <v>77</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>82</v>
@@ -21428,13 +21431,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -21457,13 +21460,13 @@
         <v>77</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -21514,7 +21517,7 @@
         <v>77</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>82</v>
@@ -21531,13 +21534,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -21634,13 +21637,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -21739,13 +21742,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -21768,19 +21771,19 @@
         <v>86</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P182" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Q182" t="s" s="2">
         <v>77</v>
@@ -21829,7 +21832,7 @@
         <v>77</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>82</v>
@@ -21846,13 +21849,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -21878,20 +21881,20 @@
         <v>105</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R183" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -21915,10 +21918,10 @@
         <v>196</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>77</v>
@@ -21936,7 +21939,7 @@
         <v>77</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>82</v>
@@ -21953,13 +21956,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -21985,14 +21988,14 @@
         <v>175</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>77</v>
@@ -22041,7 +22044,7 @@
         <v>77</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>82</v>
@@ -22058,13 +22061,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22090,14 +22093,14 @@
         <v>99</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>77</v>
@@ -22146,7 +22149,7 @@
         <v>77</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>82</v>
@@ -22155,7 +22158,7 @@
         <v>78</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>97</v>
@@ -22163,13 +22166,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -22195,16 +22198,16 @@
         <v>105</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P186" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>77</v>
@@ -22253,7 +22256,7 @@
         <v>77</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>82</v>
@@ -22270,13 +22273,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -22299,13 +22302,13 @@
         <v>77</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -22356,7 +22359,7 @@
         <v>77</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>82</v>
